--- a/data/Metadata.xlsx
+++ b/data/Metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="311">
   <si>
     <t xml:space="preserve">SampleID</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Collection_Date</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CC1.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CC1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC</t>
@@ -79,31 +79,34 @@
     <t xml:space="preserve">CAC.CC1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CC2.ITS</t>
+    <t xml:space="preserve">09_04_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA_CAC_CC2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CC3.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CC3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CC4.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CC4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CC5.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CC5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CR1.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CR1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">Chondrosia</t>
@@ -118,31 +121,31 @@
     <t xml:space="preserve">CAC.CR1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CR2.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CR2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CR2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CR3.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CR3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CR3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CR4.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CR4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CR4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.CR5.ITS</t>
+    <t xml:space="preserve">DNA_CAC_CR5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.CR5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.PF1.ITS</t>
+    <t xml:space="preserve">DNA_CAC_PF1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">Petrosia</t>
@@ -157,19 +160,19 @@
     <t xml:space="preserve">CAC.PF1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.PF3.ITS</t>
+    <t xml:space="preserve">DNA_CAC_PF3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.PF3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.PF5.ITS</t>
+    <t xml:space="preserve">DNA_CAC_PF5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.PF5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.SW1.ITS</t>
+    <t xml:space="preserve">DNA_CAC_SW1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">Seawater</t>
@@ -184,13 +187,13 @@
     <t xml:space="preserve">CAC.SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CAC.SW2.ITS</t>
+    <t xml:space="preserve">DNA_CAC_SW2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CAC.SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CC1.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CC1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO</t>
@@ -208,31 +211,34 @@
     <t xml:space="preserve">CCO.CC1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CC2.ITS</t>
+    <t xml:space="preserve">12_04_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA_CCO_CC2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CC3.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CC3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CC4.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CC4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CC5.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CC5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CR1.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CR1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">ChondrosiaCCO</t>
@@ -244,31 +250,31 @@
     <t xml:space="preserve">CCO.CR1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CR2.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CR2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CR2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CR3.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CR3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CR3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CR4.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CR4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CR4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.CR5.ITS</t>
+    <t xml:space="preserve">DNA_CCO_CR5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.CR5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.PF1.ITS</t>
+    <t xml:space="preserve">DNA_CCO_PF1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">PetrosiaCCO</t>
@@ -280,31 +286,31 @@
     <t xml:space="preserve">CCO.PF1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.PF2.ITS</t>
+    <t xml:space="preserve">DNA_CCO_PF2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.PF2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.PF3.ITS</t>
+    <t xml:space="preserve">DNA_CCO_PF3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.PF3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.PF4.ITS</t>
+    <t xml:space="preserve">DNA_CCO_PF4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.PF4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.PF5.ITS</t>
+    <t xml:space="preserve">DNA_CCO_PF5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.PF5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.SW1.ITS</t>
+    <t xml:space="preserve">DNA_CCO_SW1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SeawaterCCO</t>
@@ -316,19 +322,19 @@
     <t xml:space="preserve">CCO.SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.SW2.ITS</t>
+    <t xml:space="preserve">DNA_CCO_SW2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.CCO.SW3.ITS</t>
+    <t xml:space="preserve">DNA_CCO_SW3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">CCO.SW3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CC1.ITS</t>
+    <t xml:space="preserve">DNA_GF_CC1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF</t>
@@ -343,31 +349,34 @@
     <t xml:space="preserve">GF.CC1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CC2.ITS</t>
+    <t xml:space="preserve">24_04_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA_GF_CC2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CC3.ITS</t>
+    <t xml:space="preserve">DNA_GF_CC3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CC4.ITS</t>
+    <t xml:space="preserve">DNA_GF_CC4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CC5.ITS</t>
+    <t xml:space="preserve">DNA_GF_CC5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CN1.ITS</t>
+    <t xml:space="preserve">DNA_GF_CN1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">Chondrilla</t>
@@ -382,31 +391,31 @@
     <t xml:space="preserve">GF.CN1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CN2.ITS</t>
+    <t xml:space="preserve">DNA_GF_CN2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CN2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CN3.ITS</t>
+    <t xml:space="preserve">DNA_GF_CN3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CN3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CN4.ITS</t>
+    <t xml:space="preserve">DNA_GF_CN4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CN4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CN5.ITS</t>
+    <t xml:space="preserve">DNA_GF_CN5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CN5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CR1.ITS</t>
+    <t xml:space="preserve">DNA_GF_CR1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">ChondrosiaGF</t>
@@ -418,31 +427,31 @@
     <t xml:space="preserve">GF.CR1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CR2.ITS</t>
+    <t xml:space="preserve">DNA_GF_CR2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CR2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CR3.ITS</t>
+    <t xml:space="preserve">DNA_GF_CR3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CR3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CR4.ITS</t>
+    <t xml:space="preserve">DNA_GF_CR4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CR4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.CR5.ITS</t>
+    <t xml:space="preserve">DNA_GF_CR5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.CR5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.PF1.ITS</t>
+    <t xml:space="preserve">DNA_GF_PF1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">PetrosiaGF</t>
@@ -454,7 +463,7 @@
     <t xml:space="preserve">GF.PF1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.SW1.ITS</t>
+    <t xml:space="preserve">DNA_GF_SW1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SeawaterGF</t>
@@ -466,19 +475,19 @@
     <t xml:space="preserve">GF.SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.SW2.ITS</t>
+    <t xml:space="preserve">DNA_GF_SW2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GF.SW3.ITS</t>
+    <t xml:space="preserve">DNA_GF_SW3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GF.SW3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CC1.ITS</t>
+    <t xml:space="preserve">DNA_GM_CC1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM</t>
@@ -493,31 +502,31 @@
     <t xml:space="preserve">GM.CC1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CC2.ITS</t>
+    <t xml:space="preserve">DNA_GM_CC2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CC3.ITS</t>
+    <t xml:space="preserve">DNA_GM_CC3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CC4.ITS</t>
+    <t xml:space="preserve">DNA_GM_CC4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CC5.ITS</t>
+    <t xml:space="preserve">DNA_GM_CC5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CN1.ITS</t>
+    <t xml:space="preserve">DNA_GM_CN1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">ChondrillaGM</t>
@@ -529,31 +538,31 @@
     <t xml:space="preserve">GM.CN1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CN2.ITS</t>
+    <t xml:space="preserve">DNA_GM_CN2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CN2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CN3.ITS</t>
+    <t xml:space="preserve">DNA_GM_CN3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CN3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CN4.ITS</t>
+    <t xml:space="preserve">DNA_GM_CN4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CN4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CN5.ITS</t>
+    <t xml:space="preserve">DNA_GM_CN5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CN5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CR1.ITS</t>
+    <t xml:space="preserve">DNA_GM_CR1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">ChondrosiaGM</t>
@@ -565,31 +574,31 @@
     <t xml:space="preserve">GM.CR1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CR2.ITS</t>
+    <t xml:space="preserve">DNA_GM_CR2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CR2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CR3.ITS</t>
+    <t xml:space="preserve">DNA_GM_CR3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CR3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CR4.ITS</t>
+    <t xml:space="preserve">DNA_GM_CR4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CR4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CR5.ITS</t>
+    <t xml:space="preserve">DNA_GM_CR5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CR5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CRB1.ITS</t>
+    <t xml:space="preserve">DNA_GM_CRB1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">Bleached</t>
@@ -604,31 +613,31 @@
     <t xml:space="preserve">GM.CRB1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CRB2.ITS</t>
+    <t xml:space="preserve">DNA_GM_CRB2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CRB2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CRB3.ITS</t>
+    <t xml:space="preserve">DNA_GM_CRB3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CRB3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CRB4.ITS</t>
+    <t xml:space="preserve">DNA_GM_CRB4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CRB4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.CRB5.ITS</t>
+    <t xml:space="preserve">DNA_GM_CRB5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.CRB5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PF1.ITS</t>
+    <t xml:space="preserve">DNA_GM_PF1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">PetrosiaGM</t>
@@ -640,31 +649,31 @@
     <t xml:space="preserve">GM.PF1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PF2.ITS</t>
+    <t xml:space="preserve">DNA_GM_PF2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PF2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PF3.ITS</t>
+    <t xml:space="preserve">DNA_GM_PF3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PF3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PF4.ITS</t>
+    <t xml:space="preserve">DNA_GM_PF4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PF4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PF5.ITS</t>
+    <t xml:space="preserve">DNA_GM_PF5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PF5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PFB1.ITS</t>
+    <t xml:space="preserve">DNA_GM_PFB1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">PetrosiaGMW</t>
@@ -676,31 +685,31 @@
     <t xml:space="preserve">GM.PFB1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PFB2.ITS</t>
+    <t xml:space="preserve">DNA_GM_PFB2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PFB2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PFB3.ITS</t>
+    <t xml:space="preserve">DNA_GM_PFB3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PFB3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PFB4.ITS</t>
+    <t xml:space="preserve">DNA_GM_PFB4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PFB4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.PFB5.ITS</t>
+    <t xml:space="preserve">DNA_GM_PFB5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.PFB5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.SW1.ITS</t>
+    <t xml:space="preserve">DNA_GM_SW1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SeawaterGM</t>
@@ -712,19 +721,19 @@
     <t xml:space="preserve">GM.SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.SW2.ITS</t>
+    <t xml:space="preserve">DNA_GM_SW2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.GM.SW3.ITS</t>
+    <t xml:space="preserve">DNA_GM_SW3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">GM.SW3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CC2.ITS</t>
+    <t xml:space="preserve">DNA_SA_CC2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA</t>
@@ -739,25 +748,25 @@
     <t xml:space="preserve">SA.CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CC3.ITS</t>
+    <t xml:space="preserve">DNA_SA_CC3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CC4.ITS</t>
+    <t xml:space="preserve">DNA_SA_CC4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CC5.ITS</t>
+    <t xml:space="preserve">DNA_SA_CC5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CN1.ITS</t>
+    <t xml:space="preserve">DNA_SA_CN1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">ChondrillaSA</t>
@@ -769,31 +778,31 @@
     <t xml:space="preserve">SA.CN1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CN2.ITS</t>
+    <t xml:space="preserve">DNA_SA_CN2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CN2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CN3.ITS</t>
+    <t xml:space="preserve">DNA_SA_CN3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CN3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CN4.ITS</t>
+    <t xml:space="preserve">DNA_SA_CN4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CN4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CN5.ITS</t>
+    <t xml:space="preserve">DNA_SA_CN5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CN5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CR1.ITS</t>
+    <t xml:space="preserve">DNA_SA_CR1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">ChondrosiaSA</t>
@@ -805,31 +814,31 @@
     <t xml:space="preserve">SA.CR1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CR2.ITS</t>
+    <t xml:space="preserve">DNA_SA_CR2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CR2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CR3.ITS</t>
+    <t xml:space="preserve">DNA_SA_CR3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CR3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CR4.ITS</t>
+    <t xml:space="preserve">DNA_SA_CR4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CR4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.CR5.ITS</t>
+    <t xml:space="preserve">DNA_SA_CR5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.CR5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.PF1.ITS</t>
+    <t xml:space="preserve">DNA_SA_PF1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">PetrosiaSA</t>
@@ -841,25 +850,25 @@
     <t xml:space="preserve">SA.PF1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.PF3.ITS</t>
+    <t xml:space="preserve">DNA_SA_PF3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.PF3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.PF4.ITS</t>
+    <t xml:space="preserve">DNA_SA_PF4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.PF4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.PF5.ITS</t>
+    <t xml:space="preserve">DNA_SA_PF5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.PF5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.SW1.ITS</t>
+    <t xml:space="preserve">DNA_SA_SW1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SeawaterSA</t>
@@ -871,19 +880,19 @@
     <t xml:space="preserve">SA.SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.SW2.ITS</t>
+    <t xml:space="preserve">DNA_SA_SW2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.SA.SW3.ITS</t>
+    <t xml:space="preserve">DNA_SA_SW3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SA.SW3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.CC1.ITS</t>
+    <t xml:space="preserve">DNA_VU_CC1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU</t>
@@ -898,31 +907,31 @@
     <t xml:space="preserve">VU.CC1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.CC2.ITS</t>
+    <t xml:space="preserve">DNA_VU_CC2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU.CC2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.CC3.ITS</t>
+    <t xml:space="preserve">DNA_VU_CC3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU.CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.CC4.ITS</t>
+    <t xml:space="preserve">DNA_VU_CC4_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU.CC4</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.CC5.ITS</t>
+    <t xml:space="preserve">DNA_VU_CC5_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU.CC5</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.SW1.ITS</t>
+    <t xml:space="preserve">DNA_VU_SW1_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">SeawaterVU</t>
@@ -934,13 +943,13 @@
     <t xml:space="preserve">VU.SW1</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.SW2.ITS</t>
+    <t xml:space="preserve">DNA_VU_SW2_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU.SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA.VU.SW3.ITS</t>
+    <t xml:space="preserve">DNA_VU_SW3_ITS</t>
   </si>
   <si>
     <t xml:space="preserve">VU.SW3</t>
@@ -950,14 +959,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -973,6 +985,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1017,8 +1034,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1039,26 +1068,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.79081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.51530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,10 +1156,19 @@
       <c r="I2" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>13</v>
@@ -1154,12 +1192,21 @@
         <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
@@ -1183,12 +1230,24 @@
         <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>13</v>
@@ -1212,12 +1271,24 @@
         <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>13</v>
@@ -1241,12 +1312,24 @@
         <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>13</v>
@@ -1255,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>4</v>
@@ -1264,18 +1347,29 @@
         <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -1284,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>4</v>
@@ -1293,18 +1387,29 @@
         <v>15</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -1313,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>4</v>
@@ -1322,18 +1427,30 @@
         <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
@@ -1342,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>4</v>
@@ -1351,18 +1468,27 @@
         <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>13</v>
@@ -1371,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>4</v>
@@ -1380,18 +1506,27 @@
         <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>13</v>
@@ -1400,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>4</v>
@@ -1409,18 +1544,27 @@
         <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
@@ -1429,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>4</v>
@@ -1438,18 +1582,27 @@
         <v>15</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>13</v>
@@ -1458,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>4</v>
@@ -1467,18 +1620,27 @@
         <v>15</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>13</v>
@@ -1487,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>4</v>
@@ -1496,18 +1658,27 @@
         <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>13</v>
@@ -1516,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>4</v>
@@ -1525,21 +1696,30 @@
         <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>40.73198</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>13.96386</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
@@ -1548,27 +1728,36 @@
         <v>14</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>8</v>
@@ -1577,27 +1766,36 @@
         <v>14</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>8</v>
@@ -1606,27 +1804,36 @@
         <v>14</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>8</v>
@@ -1635,27 +1842,36 @@
         <v>14</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>8</v>
@@ -1664,404 +1880,530 @@
         <v>14</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="I33" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>40.73219</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>13.96469</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>8</v>
@@ -2070,27 +2412,36 @@
         <v>14</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>8</v>
@@ -2099,27 +2450,36 @@
         <v>14</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>8</v>
@@ -2128,27 +2488,36 @@
         <v>14</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>8</v>
@@ -2157,27 +2526,36 @@
         <v>14</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>8</v>
@@ -2186,433 +2564,568 @@
         <v>14</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="H41" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="H46" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="H52" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>40.71156</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>13.96428</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>7</v>
@@ -2627,21 +3140,30 @@
         <v>15</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>7</v>
@@ -2656,21 +3178,30 @@
         <v>15</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>7</v>
@@ -2685,21 +3216,30 @@
         <v>15</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>7</v>
@@ -2714,21 +3254,30 @@
         <v>15</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>7</v>
@@ -2743,27 +3292,36 @@
         <v>15</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>4</v>
@@ -2772,27 +3330,36 @@
         <v>15</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>4</v>
@@ -2801,27 +3368,36 @@
         <v>15</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>4</v>
@@ -2830,27 +3406,36 @@
         <v>15</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>4</v>
@@ -2859,27 +3444,36 @@
         <v>15</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>4</v>
@@ -2888,27 +3482,36 @@
         <v>15</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>4</v>
@@ -2917,27 +3520,36 @@
         <v>15</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>4</v>
@@ -2946,27 +3558,36 @@
         <v>15</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>4</v>
@@ -2975,27 +3596,36 @@
         <v>15</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>4</v>
@@ -3004,27 +3634,36 @@
         <v>15</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>4</v>
@@ -3033,172 +3672,226 @@
         <v>15</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>4</v>
@@ -3207,27 +3900,36 @@
         <v>15</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>4</v>
@@ -3236,27 +3938,36 @@
         <v>15</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>4</v>
@@ -3265,27 +3976,36 @@
         <v>15</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>4</v>
@@ -3294,27 +4014,36 @@
         <v>15</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>4</v>
@@ -3323,172 +4052,226 @@
         <v>15</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>4</v>
@@ -3497,27 +4280,36 @@
         <v>15</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>4</v>
@@ -3526,27 +4318,36 @@
         <v>15</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>4</v>
@@ -3555,21 +4356,30 @@
         <v>15</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>40.71163</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>13.96418</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>8</v>
@@ -3578,27 +4388,36 @@
         <v>14</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>8</v>
@@ -3607,27 +4426,36 @@
         <v>14</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>8</v>
@@ -3636,27 +4464,36 @@
         <v>14</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>8</v>
@@ -3665,520 +4502,682 @@
         <v>14</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>246</v>
-      </c>
       <c r="H92" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="H97" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="H102" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="H106" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>40.72681</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>13.96206</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>6</v>
@@ -4193,21 +5192,30 @@
         <v>15</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>6</v>
@@ -4222,21 +5230,30 @@
         <v>15</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>6</v>
@@ -4251,21 +5268,30 @@
         <v>15</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>6</v>
@@ -4280,21 +5306,30 @@
         <v>15</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>6</v>
@@ -4309,27 +5344,36 @@
         <v>15</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>4</v>
@@ -4338,27 +5382,36 @@
         <v>15</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>4</v>
@@ -4367,27 +5420,36 @@
         <v>15</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>4</v>
@@ -4396,19 +5458,28 @@
         <v>15</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>40.73613</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>13.9577</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
